--- a/fgconfgen_req/req_DEHFW01_20200907_1810.conf.xlsx
+++ b/fgconfgen_req/req_DEHFW01_20200907_1810.conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackyYick\Desktop\ykk-work-pre\ykk-projects\201903_pyvdomcutter\fgconfgen_req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0D43F4-A083-4E5D-8F79-EF3926ACCFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB30E0-4375-4687-9CC1-7A44BC0B9EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="4320" windowWidth="21600" windowHeight="9075" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="3540" windowWidth="21600" windowHeight="11145" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01int" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6735" uniqueCount="1752">
   <si>
     <t>name</t>
   </si>
@@ -5292,16 +5292,25 @@
   </si>
   <si>
     <t>DSDS_HKATS_5022</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5333,7 +5342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5342,6 +5351,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28349,7 +28359,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28423,6 +28433,9 @@
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1731</v>
       </c>
@@ -28438,8 +28451,29 @@
       <c r="H2" s="3" t="s">
         <v>993</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K2" s="3" t="s">
         <v>1733</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>1734</v>
@@ -28449,6 +28483,9 @@
       <c r="A3" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>1735</v>
       </c>
@@ -28464,8 +28501,29 @@
       <c r="H3" s="3" t="s">
         <v>1736</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K3" s="3" t="s">
         <v>1601</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1734</v>
@@ -28475,6 +28533,9 @@
       <c r="A4" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>1737</v>
       </c>
@@ -28490,8 +28551,29 @@
       <c r="H4" s="3" t="s">
         <v>1738</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>1642</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>1734</v>
@@ -28501,6 +28583,9 @@
       <c r="A5" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>1739</v>
       </c>
@@ -28516,8 +28601,29 @@
       <c r="H5" s="3" t="s">
         <v>1002</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>1661</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>1734</v>
@@ -28527,6 +28633,9 @@
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>1740</v>
       </c>
@@ -28542,8 +28651,29 @@
       <c r="H6" s="3" t="s">
         <v>1732</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>1741</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>1734</v>
@@ -28553,6 +28683,9 @@
       <c r="A7" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>1745</v>
       </c>
@@ -28568,8 +28701,29 @@
       <c r="H7" s="3" t="s">
         <v>1732</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K7" s="3" t="s">
         <v>1741</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>1734</v>
@@ -28579,6 +28733,9 @@
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>1747</v>
       </c>
@@ -28594,8 +28751,29 @@
       <c r="H8" s="3" t="s">
         <v>1742</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K8" s="3" t="s">
         <v>1601</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>1734</v>
@@ -28605,6 +28783,9 @@
       <c r="A9" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>1748</v>
       </c>
@@ -28620,8 +28801,29 @@
       <c r="H9" s="3" t="s">
         <v>1732</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K9" s="3" t="s">
         <v>1601</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>1734</v>
@@ -28631,6 +28833,9 @@
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>1749</v>
       </c>
@@ -28646,8 +28851,29 @@
       <c r="H10" s="3" t="s">
         <v>1000</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K10" s="3" t="s">
         <v>1741</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>1751</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>1734</v>
@@ -28657,6 +28883,9 @@
       <c r="A11" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>1589</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>1750</v>
       </c>
@@ -28672,15 +28901,37 @@
       <c r="H11" s="3" t="s">
         <v>1743</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="K11" s="3" t="s">
         <v>1744</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1751</v>
+      </c>
       <c r="Q11" s="2" t="s">
         <v>1734</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z11" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
